--- a/testFile/userCase.xlsx
+++ b/testFile/userCase.xlsx
@@ -5,14 +5,14 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\interfaceTest\testCase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\interfaceTest\testFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="login" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -427,12 +427,12 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.75" customWidth="1"/>
+    <col min="1" max="1" width="19.75" customWidth="1"/>
     <col min="3" max="3" width="28.625" customWidth="1"/>
   </cols>
   <sheetData>
